--- a/data/trans_orig/CONS_REC-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_REC-Estudios-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos reconstruyentes en País Vasco</t>
+          <t>Consumo de medicamentos reconstruyentes en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos reconstruyentes en Andalucia</t>
+          <t>Consumo de medicamentos reconstruyentes en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos reconstruyentes en C.Valenciana</t>
+          <t>Consumo de medicamentos reconstruyentes en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_REC-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_REC-Estudios-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4091</t>
+          <t>3178</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2536</t>
+          <t>2086</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6411</t>
+          <t>5017</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12029</t>
+          <t>11369</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9409</t>
+          <t>8932</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15225</t>
+          <t>14452</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>16120</t>
+          <t>14547</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>12727</t>
+          <t>12052</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>19806</t>
+          <t>17898</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>8,77%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>83973</t>
+          <t>79364</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>81653</t>
+          <t>77525</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>85528</t>
+          <t>80456</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,35%</t>
+          <t>96,15%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,72%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,12%</t>
+          <t>97,47%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>115715</t>
+          <t>110083</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>112519</t>
+          <t>107000</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>118335</t>
+          <t>112520</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>90,58%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>88,08%</t>
+          <t>88,1%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>92,63%</t>
+          <t>92,65%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>199689</t>
+          <t>189447</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>196003</t>
+          <t>186096</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>203082</t>
+          <t>191942</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>92,53%</t>
+          <t>92,87%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>90,82%</t>
+          <t>91,23%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>94,1%</t>
+          <t>94,09%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>88064</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>127744</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>215809</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23343</t>
+          <t>20694</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19593</t>
+          <t>17431</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27941</t>
+          <t>24913</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43470</t>
+          <t>40704</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>38272</t>
+          <t>35631</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>49665</t>
+          <t>46260</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>66813</t>
+          <t>61398</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>60320</t>
+          <t>55184</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>74986</t>
+          <t>68504</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>7,56%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>430148</t>
+          <t>440985</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>425550</t>
+          <t>436766</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>433898</t>
+          <t>444248</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,84%</t>
+          <t>94,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>95,68%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>388332</t>
+          <t>403653</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>382137</t>
+          <t>398097</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>393530</t>
+          <t>408726</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>89,93%</t>
+          <t>90,84%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>88,5%</t>
+          <t>89,59%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>91,14%</t>
+          <t>91,98%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>818480</t>
+          <t>844637</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>810307</t>
+          <t>837531</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>824973</t>
+          <t>850851</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>92,45%</t>
+          <t>93,22%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>91,53%</t>
+          <t>92,44%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,19%</t>
+          <t>93,91%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>453491</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>431802</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>885293</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3786</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2416</t>
+          <t>2814</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6018</t>
+          <t>6502</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12701</t>
+          <t>13126</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9739</t>
+          <t>9983</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16135</t>
+          <t>16127</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>16486</t>
+          <t>17434</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>13198</t>
+          <t>13639</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>20261</t>
+          <t>21257</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,27%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>147839</t>
+          <t>171253</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>145607</t>
+          <t>169059</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>149209</t>
+          <t>172747</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,5%</t>
+          <t>97,55%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,03%</t>
+          <t>96,3%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,41%</t>
+          <t>98,4%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>181536</t>
+          <t>214868</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>178102</t>
+          <t>211867</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>184498</t>
+          <t>218011</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>94,24%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,69%</t>
+          <t>92,93%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>329377</t>
+          <t>386121</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>325602</t>
+          <t>382298</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>332665</t>
+          <t>389916</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>95,68%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>94,73%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>96,62%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151625</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>194237</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>345863</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31219</t>
+          <t>28181</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26114</t>
+          <t>24184</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>36351</t>
+          <t>32967</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,34 +1799,34 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>68200</t>
+          <t>65199</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>61763</t>
+          <t>58954</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>76062</t>
+          <t>71868</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
+          <t>8,21%</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>7,43%</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
           <t>9,05%</t>
         </is>
       </c>
-      <c r="O13" s="2" t="inlineStr">
-        <is>
-          <t>8,19%</t>
-        </is>
-      </c>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>10,09%</t>
-        </is>
-      </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>560</t>
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>99419</t>
+          <t>93379</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>91048</t>
+          <t>85557</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>107302</t>
+          <t>101351</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>6,7%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>661962</t>
+          <t>691600</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>656830</t>
+          <t>686814</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>667067</t>
+          <t>695597</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>95,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,23%</t>
+          <t>96,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>685584</t>
+          <t>728604</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>677722</t>
+          <t>721935</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>692021</t>
+          <t>734849</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>91,79%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
           <t>90,95%</t>
         </is>
       </c>
-      <c r="O14" s="2" t="inlineStr">
-        <is>
-          <t>89,91%</t>
-        </is>
-      </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>91,81%</t>
+          <t>92,57%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1347546</t>
+          <t>1420205</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1339663</t>
+          <t>1412233</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1355917</t>
+          <t>1428027</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,13%</t>
+          <t>93,83%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,58%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>93,71%</t>
+          <t>94,35%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>693181</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>753784</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1446965</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2351,12 +2351,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3514</t>
+          <t>3311</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12296</t>
+          <t>12579</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2366,12 +2366,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2386,12 +2386,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>26746</t>
+          <t>26243</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>43767</t>
+          <t>43117</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2401,12 +2401,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>32598</t>
+          <t>32019</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>52391</t>
+          <t>52606</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2436,12 +2436,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>8,45%</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>215511</t>
+          <t>215228</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>224293</t>
+          <t>224496</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,6%</t>
+          <t>94,48%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,46%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>350993</t>
+          <t>351643</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>368014</t>
+          <t>368517</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2514,12 +2514,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>88,91%</t>
+          <t>89,08%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>93,35%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>570176</t>
+          <t>569961</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>589969</t>
+          <t>590548</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>91,58%</t>
+          <t>91,55%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>94,86%</t>
         </is>
       </c>
     </row>
@@ -2694,12 +2694,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11093</t>
+          <t>10051</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31233</t>
+          <t>31540</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>33055</t>
+          <t>32419</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>70880</t>
+          <t>70374</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -2764,12 +2764,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>49588</t>
+          <t>51721</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>93504</t>
+          <t>93589</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -2779,7 +2779,7 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
@@ -2807,12 +2807,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1378160</t>
+          <t>1377853</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1398300</t>
+          <t>1399342</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -2822,12 +2822,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>97,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,21%</t>
+          <t>99,29%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -2842,12 +2842,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1314931</t>
+          <t>1315437</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1352756</t>
+          <t>1353392</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>94,92%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>97,66%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2701700</t>
+          <t>2701615</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2745616</t>
+          <t>2743483</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>98,15%</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4987</t>
+          <t>5226</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20177</t>
+          <t>19664</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3052,12 +3052,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14605</t>
+          <t>14524</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>31845</t>
+          <t>31435</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>22466</t>
+          <t>22161</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>43183</t>
+          <t>45431</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3122,12 +3122,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>5,03%</t>
         </is>
       </c>
     </row>
@@ -3150,12 +3150,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>439624</t>
+          <t>440137</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>454814</t>
+          <t>454575</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3165,12 +3165,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,92%</t>
+          <t>98,86%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -3185,12 +3185,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>411529</t>
+          <t>411939</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>428769</t>
+          <t>428850</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3200,12 +3200,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,82%</t>
+          <t>92,91%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,71%</t>
+          <t>96,72%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -3220,12 +3220,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>859992</t>
+          <t>857744</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>880709</t>
+          <t>881014</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,22%</t>
+          <t>94,97%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,51%</t>
+          <t>97,55%</t>
         </is>
       </c>
     </row>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23832</t>
+          <t>22071</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>51303</t>
+          <t>50423</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3395,12 +3395,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>78942</t>
+          <t>77890</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>131208</t>
+          <t>130953</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3430,12 +3430,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3450,12 +3450,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>111281</t>
+          <t>112419</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>172132</t>
+          <t>174385</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>4,04%</t>
         </is>
       </c>
     </row>
@@ -3493,12 +3493,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2045698</t>
+          <t>2046578</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2073169</t>
+          <t>2074930</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3508,12 +3508,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>97,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>98,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2092737</t>
+          <t>2092992</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2145003</t>
+          <t>2146055</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>94,1%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>96,5%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -3563,12 +3563,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>4148814</t>
+          <t>4146561</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4209665</t>
+          <t>4208527</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -3578,12 +3578,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>95,96%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,42%</t>
+          <t>97,4%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_REC-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CONS_REC-Estudios-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos reconstruyentes en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos reconstruyentes en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3178</t>
+          <t>7087</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2086</t>
+          <t>3331</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5017</t>
+          <t>13137</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11369</t>
+          <t>36275</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8932</t>
+          <t>27825</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14452</t>
+          <t>45698</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>69</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>14547</t>
+          <t>43363</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>12052</t>
+          <t>34086</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>17898</t>
+          <t>55857</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>8,13%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>280</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79364</t>
+          <t>247810</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>77525</t>
+          <t>241760</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80456</t>
+          <t>251566</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,15%</t>
+          <t>97,22%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>98,69%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>634</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>110083</t>
+          <t>395991</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>107000</t>
+          <t>386568</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>112520</t>
+          <t>404441</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>90,64%</t>
+          <t>91,61%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>88,1%</t>
+          <t>89,43%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>92,65%</t>
+          <t>93,56%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>914</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>189447</t>
+          <t>643800</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>186096</t>
+          <t>631306</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>191942</t>
+          <t>653077</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>92,87%</t>
+          <t>93,69%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>91,23%</t>
+          <t>91,87%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>95,04%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>254897</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>254897</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82542</t>
+          <t>254897</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>694</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432266</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432266</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>121452</t>
+          <t>432266</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>983</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687163</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687163</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>203994</t>
+          <t>687163</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20694</t>
+          <t>26031</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17431</t>
+          <t>16629</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24913</t>
+          <t>40052</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40704</t>
+          <t>57830</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>35631</t>
+          <t>47137</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>46260</t>
+          <t>72198</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>114</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>61398</t>
+          <t>83861</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>55184</t>
+          <t>68192</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>68504</t>
+          <t>102046</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>3,99%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2523</t>
+          <t>1086</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>440985</t>
+          <t>1261656</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>436766</t>
+          <t>1247635</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>444248</t>
+          <t>1271058</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,52%</t>
+          <t>97,98%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,6%</t>
+          <t>96,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,22%</t>
+          <t>98,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2257</t>
+          <t>1550</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>403653</t>
+          <t>1212911</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>398097</t>
+          <t>1198543</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>408726</t>
+          <t>1223604</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>90,84%</t>
+          <t>95,45%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>89,59%</t>
+          <t>94,32%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>91,98%</t>
+          <t>96,29%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>4780</t>
+          <t>2636</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>844637</t>
+          <t>2474567</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>837531</t>
+          <t>2456382</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>850851</t>
+          <t>2490236</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>96,72%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,44%</t>
+          <t>96,01%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,91%</t>
+          <t>97,33%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2647</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>461679</t>
+          <t>1287687</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>444357</t>
+          <t>1270741</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5150</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>906035</t>
+          <t>2558428</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4308</t>
+          <t>10279</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2814</t>
+          <t>5262</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6502</t>
+          <t>19421</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13126</t>
+          <t>25101</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9983</t>
+          <t>17253</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16127</t>
+          <t>35478</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>43</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>17434</t>
+          <t>35380</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>13639</t>
+          <t>25471</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>21257</t>
+          <t>48281</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>4,8%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>884</t>
+          <t>478</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>171253</t>
+          <t>499600</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>169059</t>
+          <t>490458</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>172747</t>
+          <t>504617</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>97,98%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>96,19%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,4%</t>
+          <t>98,97%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1128</t>
+          <t>632</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>214868</t>
+          <t>470805</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>211867</t>
+          <t>460428</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>218011</t>
+          <t>478653</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,24%</t>
+          <t>94,94%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,93%</t>
+          <t>92,85%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>96,52%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>386121</t>
+          <t>970406</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>382298</t>
+          <t>957505</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>389916</t>
+          <t>980315</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,68%</t>
+          <t>96,48%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,73%</t>
+          <t>95,2%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>97,47%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>487</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>175561</t>
+          <t>509879</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>227994</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>403555</t>
+          <t>1005786</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>28181</t>
+          <t>43398</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24184</t>
+          <t>30779</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32967</t>
+          <t>57473</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>183</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>65199</t>
+          <t>119206</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>58954</t>
+          <t>102266</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>71868</t>
+          <t>138471</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>226</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>93379</t>
+          <t>162604</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>85557</t>
+          <t>141870</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>101351</t>
+          <t>187732</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>4,42%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3888</t>
+          <t>1844</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>691600</t>
+          <t>2009066</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>686814</t>
+          <t>1994991</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>695597</t>
+          <t>2021685</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>97,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,42%</t>
+          <t>97,2%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,64%</t>
+          <t>98,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4066</t>
+          <t>2816</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>728604</t>
+          <t>2079707</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>721935</t>
+          <t>2060442</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>734849</t>
+          <t>2096647</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>91,79%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>90,95%</t>
+          <t>93,7%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>92,57%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>7954</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1420205</t>
+          <t>4088772</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1412233</t>
+          <t>4063644</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1428027</t>
+          <t>4109506</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,83%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,3%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,35%</t>
+          <t>96,66%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052464</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052464</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>719781</t>
+          <t>2052464</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>2999</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198913</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198913</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>793803</t>
+          <t>2198913</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8514</t>
+          <t>4886</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4251376</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4251376</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1513584</t>
+          <t>4251376</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos reconstruyentes en Andalucia (tasa de respuesta: 99,86%)</t>
+          <t>Consumo de medicamentos reconstruyentes en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2341,107 +2341,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6877</t>
+          <t>10582</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3311</t>
+          <t>6944</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12579</t>
+          <t>15569</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>34037</t>
+          <t>26020</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>26243</t>
+          <t>20797</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>43117</t>
+          <t>32654</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>102</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>40915</t>
+          <t>36602</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>32019</t>
+          <t>29489</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>52606</t>
+          <t>44834</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>9,16%</t>
         </is>
       </c>
     </row>
@@ -2454,107 +2454,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>522</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>220930</t>
+          <t>205214</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>215228</t>
+          <t>200227</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>224496</t>
+          <t>208852</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,98%</t>
+          <t>95,1%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,48%</t>
+          <t>92,79%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>96,78%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>573</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>360723</t>
+          <t>247661</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>351643</t>
+          <t>241027</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>368517</t>
+          <t>252884</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>91,38%</t>
+          <t>90,49%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,08%</t>
+          <t>88,07%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>914</t>
+          <t>1095</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>581652</t>
+          <t>452876</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>569961</t>
+          <t>444644</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>590548</t>
+          <t>459989</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>93,43%</t>
+          <t>92,52%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>91,55%</t>
+          <t>90,84%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>94,86%</t>
+          <t>93,98%</t>
         </is>
       </c>
     </row>
@@ -2567,22 +2567,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>227807</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>227807</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>227807</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2602,22 +2602,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>644</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>394760</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>394760</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>394760</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -2637,22 +2637,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>622567</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>622567</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>622567</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -2684,107 +2684,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19719</t>
+          <t>17619</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10051</t>
+          <t>12654</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31540</t>
+          <t>25203</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53074</t>
+          <t>48069</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32419</t>
+          <t>37853</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>70374</t>
+          <t>59137</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>130</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>72793</t>
+          <t>65688</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>51721</t>
+          <t>54994</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>93589</t>
+          <t>78690</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>4,55%</t>
         </is>
       </c>
     </row>
@@ -2797,107 +2797,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>1596</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1389674</t>
+          <t>844399</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1377853</t>
+          <t>836815</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1399342</t>
+          <t>849364</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,6%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,76%</t>
+          <t>97,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>98,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1550</t>
+          <t>1433</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1332737</t>
+          <t>820111</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1315437</t>
+          <t>809043</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1353392</t>
+          <t>830327</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>94,46%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,92%</t>
+          <t>93,19%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,66%</t>
+          <t>95,64%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2636</t>
+          <t>3029</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2722411</t>
+          <t>1664510</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2701615</t>
+          <t>1651508</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2743483</t>
+          <t>1675204</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>96,2%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>95,45%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>96,82%</t>
         </is>
       </c>
     </row>
@@ -2910,22 +2910,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1409393</t>
+          <t>862018</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2945,22 +2945,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>1523</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1385811</t>
+          <t>868180</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -2980,22 +2980,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>3159</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2795204</t>
+          <t>1730198</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3027,107 +3027,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10290</t>
+          <t>9816</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5226</t>
+          <t>5594</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19664</t>
+          <t>16455</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21508</t>
+          <t>31439</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14524</t>
+          <t>23678</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>31435</t>
+          <t>41994</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>31798</t>
+          <t>41255</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>22161</t>
+          <t>31707</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>45431</t>
+          <t>51814</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>6,51%</t>
         </is>
       </c>
     </row>
@@ -3140,107 +3140,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>637</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>449511</t>
+          <t>368737</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>440137</t>
+          <t>362098</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>454575</t>
+          <t>372959</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,76%</t>
+          <t>97,41%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>95,65%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>650</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>421866</t>
+          <t>385436</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>411939</t>
+          <t>374881</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>428850</t>
+          <t>393197</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>92,46%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,91%</t>
+          <t>89,93%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,72%</t>
+          <t>94,32%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1287</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>871377</t>
+          <t>754173</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>857744</t>
+          <t>743614</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>881014</t>
+          <t>763721</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,97%</t>
+          <t>93,49%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>96,01%</t>
         </is>
       </c>
     </row>
@@ -3253,22 +3253,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>655</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>459801</t>
+          <t>378553</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3288,22 +3288,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>700</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>416875</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3323,22 +3323,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>903175</t>
+          <t>795428</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3370,107 +3370,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>36886</t>
+          <t>38016</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22071</t>
+          <t>30058</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>50423</t>
+          <t>49042</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>211</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>108620</t>
+          <t>105528</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>77890</t>
+          <t>91198</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>130953</t>
+          <t>121844</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>300</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>145506</t>
+          <t>143545</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>112419</t>
+          <t>127284</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>174385</t>
+          <t>162648</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>5,39%</t>
         </is>
       </c>
     </row>
@@ -3483,107 +3483,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1844</t>
+          <t>2755</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2060115</t>
+          <t>1418351</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2046578</t>
+          <t>1407325</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2074930</t>
+          <t>1426309</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,24%</t>
+          <t>97,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,6%</t>
+          <t>96,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,95%</t>
+          <t>97,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2816</t>
+          <t>2656</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2115325</t>
+          <t>1453209</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2092992</t>
+          <t>1436893</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2146055</t>
+          <t>1467539</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>94,11%</t>
+          <t>92,18%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,5%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4660</t>
+          <t>5411</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>4175440</t>
+          <t>2871559</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>4146561</t>
+          <t>2852456</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4208527</t>
+          <t>2887820</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,63%</t>
+          <t>95,24%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>94,61%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>95,78%</t>
         </is>
       </c>
     </row>
@@ -3596,22 +3596,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1887</t>
+          <t>2844</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2097001</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2097001</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2097001</t>
+          <t>1456367</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -3631,22 +3631,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2999</t>
+          <t>2867</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2223945</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2223945</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2223945</t>
+          <t>1558737</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -3666,22 +3666,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4886</t>
+          <t>5711</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>4320946</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4320946</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>4320946</t>
+          <t>3015104</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos reconstruyentes en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Consumo de medicamentos reconstruyentes en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3952,107 +3952,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10582</t>
+          <t>3178</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6944</t>
+          <t>2086</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15569</t>
+          <t>5017</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>26020</t>
+          <t>11369</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>20797</t>
+          <t>8932</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>32654</t>
+          <t>14452</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>96</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>36602</t>
+          <t>14547</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>29489</t>
+          <t>12052</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>44834</t>
+          <t>17898</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>8,77%</t>
         </is>
       </c>
     </row>
@@ -4065,107 +4065,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>481</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>205214</t>
+          <t>79364</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>200227</t>
+          <t>77525</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>208852</t>
+          <t>80456</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,1%</t>
+          <t>96,15%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,79%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>97,47%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>681</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>247661</t>
+          <t>110083</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>241027</t>
+          <t>107000</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>252884</t>
+          <t>112520</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>90,49%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>88,07%</t>
+          <t>88,1%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>92,4%</t>
+          <t>92,65%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>452876</t>
+          <t>189447</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>444644</t>
+          <t>186096</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>459989</t>
+          <t>191942</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>92,52%</t>
+          <t>92,87%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>90,84%</t>
+          <t>91,23%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>93,98%</t>
+          <t>94,09%</t>
         </is>
       </c>
     </row>
@@ -4178,22 +4178,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>503</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82542</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4213,22 +4213,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>755</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121452</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4248,22 +4248,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203994</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4295,107 +4295,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17619</t>
+          <t>20694</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12654</t>
+          <t>17431</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25203</t>
+          <t>24913</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>246</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>48069</t>
+          <t>40704</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>37853</t>
+          <t>35631</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>59137</t>
+          <t>46260</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>370</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>65688</t>
+          <t>61398</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>54994</t>
+          <t>55184</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>78690</t>
+          <t>68504</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>7,56%</t>
         </is>
       </c>
     </row>
@@ -4408,107 +4408,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1596</t>
+          <t>2523</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>844399</t>
+          <t>440985</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>836815</t>
+          <t>436766</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>849364</t>
+          <t>444248</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>95,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,08%</t>
+          <t>94,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,53%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1433</t>
+          <t>2257</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>820111</t>
+          <t>403653</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>809043</t>
+          <t>398097</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>830327</t>
+          <t>408726</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,46%</t>
+          <t>90,84%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,19%</t>
+          <t>89,59%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,64%</t>
+          <t>91,98%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>3029</t>
+          <t>4780</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>1664510</t>
+          <t>844637</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1651508</t>
+          <t>837531</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1675204</t>
+          <t>850851</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>93,22%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,45%</t>
+          <t>92,44%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,82%</t>
+          <t>93,91%</t>
         </is>
       </c>
     </row>
@@ -4521,22 +4521,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>2647</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>862018</t>
+          <t>461679</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4556,22 +4556,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>868180</t>
+          <t>444357</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4591,22 +4591,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>3159</t>
+          <t>5150</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1730198</t>
+          <t>906035</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4638,107 +4638,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9816</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5594</t>
+          <t>2814</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16455</t>
+          <t>6502</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31439</t>
+          <t>13126</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>23678</t>
+          <t>9983</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>41994</t>
+          <t>16127</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>94</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>41255</t>
+          <t>17434</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>31707</t>
+          <t>13639</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>51814</t>
+          <t>21257</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>5,27%</t>
         </is>
       </c>
     </row>
@@ -4751,107 +4751,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>884</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>368737</t>
+          <t>171253</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>362098</t>
+          <t>169059</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>372959</t>
+          <t>172747</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,41%</t>
+          <t>97,55%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,65%</t>
+          <t>96,3%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>98,4%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>385436</t>
+          <t>214868</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>374881</t>
+          <t>211867</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>393197</t>
+          <t>218011</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>94,24%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>89,93%</t>
+          <t>92,93%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>94,32%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1287</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>754173</t>
+          <t>386121</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>743614</t>
+          <t>382298</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>763721</t>
+          <t>389916</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>95,68%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,49%</t>
+          <t>94,73%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,01%</t>
+          <t>96,62%</t>
         </is>
       </c>
     </row>
@@ -4864,22 +4864,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>907</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>378553</t>
+          <t>175561</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4899,22 +4899,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>1199</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>416875</t>
+          <t>227994</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4934,22 +4934,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>795428</t>
+          <t>403555</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4981,107 +4981,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38016</t>
+          <t>28181</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30058</t>
+          <t>24184</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>49042</t>
+          <t>32967</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>391</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>105528</t>
+          <t>65199</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>91198</t>
+          <t>58954</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>121844</t>
+          <t>71868</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>560</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>143545</t>
+          <t>93379</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>127284</t>
+          <t>85557</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>162648</t>
+          <t>101351</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>6,7%</t>
         </is>
       </c>
     </row>
@@ -5094,107 +5094,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2755</t>
+          <t>3888</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1418351</t>
+          <t>691600</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1407325</t>
+          <t>686814</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1426309</t>
+          <t>695597</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>96,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,63%</t>
+          <t>95,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,94%</t>
+          <t>96,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2656</t>
+          <t>4066</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1453209</t>
+          <t>728604</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1436893</t>
+          <t>721935</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1467539</t>
+          <t>734849</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>91,79%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,18%</t>
+          <t>90,95%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,15%</t>
+          <t>92,57%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>5411</t>
+          <t>7954</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2871559</t>
+          <t>1420205</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2852456</t>
+          <t>1412233</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>2887820</t>
+          <t>1428027</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,24%</t>
+          <t>93,83%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,61%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,78%</t>
+          <t>94,35%</t>
         </is>
       </c>
     </row>
@@ -5207,22 +5207,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2844</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1456367</t>
+          <t>719781</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5242,22 +5242,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2867</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1558737</t>
+          <t>793803</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5277,22 +5277,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>5711</t>
+          <t>8514</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>3015104</t>
+          <t>1513584</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
